--- a/Test Data/FC_Gallery_OtherNodes.xlsx
+++ b/Test Data/FC_Gallery_OtherNodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B6E317-2791-403D-99D4-7FAF24042D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77723A61-5D37-4C90-B2CD-9BB16025309E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>

--- a/Test Data/FC_Gallery_OtherNodes.xlsx
+++ b/Test Data/FC_Gallery_OtherNodes.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77723A61-5D37-4C90-B2CD-9BB16025309E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BFA61E-84B2-4245-8CEC-732B8B8ED749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="13" r:id="rId1"/>
     <sheet name="Belgium" sheetId="7" r:id="rId2"/>
+    <sheet name="Denmark" sheetId="14" r:id="rId3"/>
+    <sheet name="Sweden" sheetId="15" r:id="rId4"/>
+    <sheet name="Norway" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
   <si>
     <t>Wg</t>
   </si>
@@ -79,6 +82,24 @@
   </si>
   <si>
     <t>NGC-3463/T1192/T1210/T1234/T1233/T1236</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-3446/T2003</t>
+  </si>
+  <si>
+    <t>Sweden market</t>
+  </si>
+  <si>
+    <t>NGC-3465/T2029</t>
+  </si>
+  <si>
+    <t>Norway market</t>
+  </si>
+  <si>
+    <t>NGC-3464/T1918</t>
   </si>
 </sst>
 </file>
@@ -599,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,4 +711,295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB4B83-93D9-4D5A-9D48-2F234DBDBFAB}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A38B8F0-33A6-46E2-89E1-70642D9E4790}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E848F7-1CA4-41F1-A824-993550D67E93}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_OtherNodes.xlsx
+++ b/Test Data/FC_Gallery_OtherNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BFA61E-84B2-4245-8CEC-732B8B8ED749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E376A3-7317-4EBD-8F37-2FE026DE39E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="13" r:id="rId1"/>
@@ -18,6 +18,13 @@
     <sheet name="Denmark" sheetId="14" r:id="rId3"/>
     <sheet name="Sweden" sheetId="15" r:id="rId4"/>
     <sheet name="Norway" sheetId="16" r:id="rId5"/>
+    <sheet name="Hungary" sheetId="17" r:id="rId6"/>
+    <sheet name="Italy" sheetId="18" r:id="rId7"/>
+    <sheet name="Spain" sheetId="19" r:id="rId8"/>
+    <sheet name="Serbia" sheetId="20" r:id="rId9"/>
+    <sheet name="Romania" sheetId="21" r:id="rId10"/>
+    <sheet name="Slovakia" sheetId="22" r:id="rId11"/>
+    <sheet name="Turkey" sheetId="23" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -100,6 +107,42 @@
   </si>
   <si>
     <t>NGC-3464/T1918</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>Italy market</t>
+  </si>
+  <si>
+    <t>NGC-3443/T1916</t>
+  </si>
+  <si>
+    <t>Spain market</t>
+  </si>
+  <si>
+    <t>NGC-3442/T1592</t>
+  </si>
+  <si>
+    <t>Serbia market</t>
+  </si>
+  <si>
+    <t>NGC-4305/T3495</t>
+  </si>
+  <si>
+    <t>Romania market</t>
+  </si>
+  <si>
+    <t>NGC-4307/T3541</t>
+  </si>
+  <si>
+    <t>NGC-4306/T3555</t>
+  </si>
+  <si>
+    <t>Slovakia market</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
   </si>
 </sst>
 </file>
@@ -616,6 +659,295 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00FF1B-6525-4DE8-B56D-21B3E315A4AD}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E2831E-C62B-44D2-A334-E7A4A2940E4B}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DEEED-DCB6-42B8-8D61-D345D64216EF}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D10"/>
@@ -911,7 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E848F7-1CA4-41F1-A824-993550D67E93}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1002,4 +1334,390 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351B2400-CEF1-439D-AE38-3793E8EA1092}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D27BE4-4E74-43C0-A464-F004A69C25F7}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089E0379-27F1-4B41-B080-33AD249EFC50}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1026C883-01A5-4E08-8509-B039B145C1AF}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_OtherNodes.xlsx
+++ b/Test Data/FC_Gallery_OtherNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E376A3-7317-4EBD-8F37-2FE026DE39E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08D0DC1-C9EF-41DA-A272-5FB8BEBB8754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="13" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-4308/T3599</t>
   </si>
 </sst>
 </file>
@@ -857,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DEEED-DCB6-42B8-8D61-D345D64216EF}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1340,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351B2400-CEF1-439D-AE38-3793E8EA1092}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1386,7 +1389,9 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
